--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/4_fold/67.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/4_fold/67.xlsx
@@ -479,13 +479,13 @@
         <v>-15.20640659478292</v>
       </c>
       <c r="E2" t="n">
-        <v>-9.108802216033062</v>
+        <v>-9.139189450928708</v>
       </c>
       <c r="F2" t="n">
-        <v>-1.699344345786611</v>
+        <v>-1.768825196967651</v>
       </c>
       <c r="G2" t="n">
-        <v>-7.715021840108588</v>
+        <v>-7.903943770114695</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-14.13868341247856</v>
       </c>
       <c r="E3" t="n">
-        <v>-9.763783942598934</v>
+        <v>-9.78439122727181</v>
       </c>
       <c r="F3" t="n">
-        <v>-1.713811340426718</v>
+        <v>-1.769885673497831</v>
       </c>
       <c r="G3" t="n">
-        <v>-7.580956659009312</v>
+        <v>-7.729593573171429</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-13.05526833789339</v>
       </c>
       <c r="E4" t="n">
-        <v>-10.30268931217006</v>
+        <v>-10.34776611085412</v>
       </c>
       <c r="F4" t="n">
-        <v>-1.711336895189632</v>
+        <v>-1.772792164728694</v>
       </c>
       <c r="G4" t="n">
-        <v>-7.382241686477594</v>
+        <v>-7.536599936981545</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-12.0694710185845</v>
       </c>
       <c r="E5" t="n">
-        <v>-10.95119034882928</v>
+        <v>-10.99058508808003</v>
       </c>
       <c r="F5" t="n">
-        <v>-1.714439770963121</v>
+        <v>-1.768537166305133</v>
       </c>
       <c r="G5" t="n">
-        <v>-6.965435133208404</v>
+        <v>-7.102878128440844</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-11.17595038505906</v>
       </c>
       <c r="E6" t="n">
-        <v>-11.56096435368267</v>
+        <v>-11.62176500807965</v>
       </c>
       <c r="F6" t="n">
-        <v>-1.76616745949078</v>
+        <v>-1.823695038177325</v>
       </c>
       <c r="G6" t="n">
-        <v>-6.718501209310608</v>
+        <v>-6.849921745235855</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-10.39630539835472</v>
       </c>
       <c r="E7" t="n">
-        <v>-12.36090405731213</v>
+        <v>-12.4149883603513</v>
       </c>
       <c r="F7" t="n">
-        <v>-1.552684369353595</v>
+        <v>-1.614244377315391</v>
       </c>
       <c r="G7" t="n">
-        <v>-6.340303857121667</v>
+        <v>-6.470375885854216</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-9.73036528799809</v>
       </c>
       <c r="E8" t="n">
-        <v>-13.0002273896793</v>
+        <v>-13.05833102969088</v>
       </c>
       <c r="F8" t="n">
-        <v>-1.460305080502376</v>
+        <v>-1.517191136349676</v>
       </c>
       <c r="G8" t="n">
-        <v>-5.671103889669681</v>
+        <v>-5.821822479983632</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-9.192834114251751</v>
       </c>
       <c r="E9" t="n">
-        <v>-13.61398145459658</v>
+        <v>-13.67496540123334</v>
       </c>
       <c r="F9" t="n">
-        <v>-1.345092815495187</v>
+        <v>-1.410645975823709</v>
       </c>
       <c r="G9" t="n">
-        <v>-5.282799279686928</v>
+        <v>-5.406717926083865</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-8.785314365698612</v>
       </c>
       <c r="E10" t="n">
-        <v>-14.2441925441859</v>
+        <v>-14.31692028647169</v>
       </c>
       <c r="F10" t="n">
-        <v>-1.272194873272456</v>
+        <v>-1.329447513599324</v>
       </c>
       <c r="G10" t="n">
-        <v>-4.878561337145793</v>
+        <v>-5.018884639003414</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-8.503679438329424</v>
       </c>
       <c r="E11" t="n">
-        <v>-15.08573958624637</v>
+        <v>-15.16204152720795</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.161250698991669</v>
+        <v>-1.206785728275192</v>
       </c>
       <c r="G11" t="n">
-        <v>-4.317071745172687</v>
+        <v>-4.452825833338546</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-8.342982434250469</v>
       </c>
       <c r="E12" t="n">
-        <v>-15.86308197517102</v>
+        <v>-15.93732842458644</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.9190038195112117</v>
+        <v>-0.9718574460832599</v>
       </c>
       <c r="G12" t="n">
-        <v>-3.798053583618141</v>
+        <v>-3.918162369888136</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-8.298834268187143</v>
       </c>
       <c r="E13" t="n">
-        <v>-16.62508018516516</v>
+        <v>-16.7057025860645</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.8270958535622948</v>
+        <v>-0.8812718027213572</v>
       </c>
       <c r="G13" t="n">
-        <v>-3.332949525165823</v>
+        <v>-3.440293316165135</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-8.379544150303989</v>
       </c>
       <c r="E14" t="n">
-        <v>-17.35577469906473</v>
+        <v>-17.42973311781764</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.6441047367434894</v>
+        <v>-0.7017239615499259</v>
       </c>
       <c r="G14" t="n">
-        <v>-2.759441199184012</v>
+        <v>-2.869442727660195</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-8.57958349290509</v>
       </c>
       <c r="E15" t="n">
-        <v>-18.11989386211923</v>
+        <v>-18.20288596983293</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.4604720970854396</v>
+        <v>-0.5162714917968761</v>
       </c>
       <c r="G15" t="n">
-        <v>-2.476817657739671</v>
+        <v>-2.588377170254019</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-8.880364322077567</v>
       </c>
       <c r="E16" t="n">
-        <v>-18.98622463345908</v>
+        <v>-19.0728302167571</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.2987559723844392</v>
+        <v>-0.3519107219218471</v>
       </c>
       <c r="G16" t="n">
-        <v>-1.907839268541098</v>
+        <v>-2.029388208123683</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-9.27240410123591</v>
       </c>
       <c r="E17" t="n">
-        <v>-19.82121243179585</v>
+        <v>-19.89612658865621</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.0599785531570392</v>
+        <v>-0.1050029826297351</v>
       </c>
       <c r="G17" t="n">
-        <v>-1.640415890696002</v>
+        <v>-1.753428648825781</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-9.741775244291096</v>
       </c>
       <c r="E18" t="n">
-        <v>-20.55466942159503</v>
+        <v>-20.64763786407412</v>
       </c>
       <c r="F18" t="n">
-        <v>0.04131659392939539</v>
+        <v>0.01281465064295774</v>
       </c>
       <c r="G18" t="n">
-        <v>-1.200449053699797</v>
+        <v>-1.314208073091555</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-10.27350524268286</v>
       </c>
       <c r="E19" t="n">
-        <v>-21.27255966331539</v>
+        <v>-21.37585793273661</v>
       </c>
       <c r="F19" t="n">
-        <v>0.3209419980229807</v>
+        <v>0.2812854127153925</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.815705550089993</v>
+        <v>-0.9358012440571463</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-10.84076358142104</v>
       </c>
       <c r="E20" t="n">
-        <v>-21.91065231921544</v>
+        <v>-22.01257589683827</v>
       </c>
       <c r="F20" t="n">
-        <v>0.47028589653855</v>
+        <v>0.4322396644804941</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.587729280707017</v>
+        <v>-0.7021560075437029</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-11.41562984702481</v>
       </c>
       <c r="E21" t="n">
-        <v>-22.52974804369214</v>
+        <v>-22.62998271424839</v>
       </c>
       <c r="F21" t="n">
-        <v>0.655921658531384</v>
+        <v>0.6205724408587235</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.2459154381152328</v>
+        <v>-0.368210638959796</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-11.97611814420046</v>
       </c>
       <c r="E22" t="n">
-        <v>-22.98325232182669</v>
+        <v>-23.0847307611529</v>
       </c>
       <c r="F22" t="n">
-        <v>0.8222855507411971</v>
+        <v>0.7931289923126731</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.1291059121613528</v>
+        <v>-0.2529590970440814</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-12.50667762960116</v>
       </c>
       <c r="E23" t="n">
-        <v>-23.42376903554224</v>
+        <v>-23.52850745827605</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9030912438803304</v>
+        <v>0.8772863149792883</v>
       </c>
       <c r="G23" t="n">
-        <v>0.02094497070766963</v>
+        <v>-0.1185666083737634</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-12.99067091041989</v>
       </c>
       <c r="E24" t="n">
-        <v>-23.91672042213892</v>
+        <v>-24.01179672537553</v>
       </c>
       <c r="F24" t="n">
-        <v>1.045365298861368</v>
+        <v>1.025464998541944</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.03474968558103306</v>
+        <v>-0.1427349994195897</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-13.4055008345654</v>
       </c>
       <c r="E25" t="n">
-        <v>-24.16821046742563</v>
+        <v>-24.25951618744383</v>
       </c>
       <c r="F25" t="n">
-        <v>1.100195863162516</v>
+        <v>1.079732593820899</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1658898554684189</v>
+        <v>0.03941821001734511</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-13.74228212380963</v>
       </c>
       <c r="E26" t="n">
-        <v>-24.43237386186314</v>
+        <v>-24.53171825582615</v>
       </c>
       <c r="F26" t="n">
-        <v>1.236709304893194</v>
+        <v>1.217070850630605</v>
       </c>
       <c r="G26" t="n">
-        <v>0.06301053973813549</v>
+        <v>-0.06226970615434126</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-13.99366584864968</v>
       </c>
       <c r="E27" t="n">
-        <v>-24.4877412105808</v>
+        <v>-24.57730565432104</v>
       </c>
       <c r="F27" t="n">
-        <v>1.205261593467368</v>
+        <v>1.185204185513844</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.1366078016896619</v>
+        <v>-0.2641006467623903</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-14.15959751808908</v>
       </c>
       <c r="E28" t="n">
-        <v>-24.56768281173238</v>
+        <v>-24.66353156083665</v>
       </c>
       <c r="F28" t="n">
-        <v>1.1332932047464</v>
+        <v>1.114270088717372</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.4894453632741794</v>
+        <v>-0.6205124070226991</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-14.23495532165745</v>
       </c>
       <c r="E29" t="n">
-        <v>-24.37612932885508</v>
+        <v>-24.47878607543706</v>
       </c>
       <c r="F29" t="n">
-        <v>1.153206597368665</v>
+        <v>1.123081208529854</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.545192388774249</v>
+        <v>-0.6636122679776613</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-14.21330317141278</v>
       </c>
       <c r="E30" t="n">
-        <v>-24.11756944003383</v>
+        <v>-24.21707094163095</v>
       </c>
       <c r="F30" t="n">
-        <v>1.042105315453778</v>
+        <v>1.008405727939175</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.860062272117761</v>
+        <v>-0.9837845339720723</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-14.09659352634107</v>
       </c>
       <c r="E31" t="n">
-        <v>-23.89193669285953</v>
+        <v>-23.99808908430024</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9741300790995361</v>
+        <v>0.9387677691240339</v>
       </c>
       <c r="G31" t="n">
-        <v>-1.08404538913401</v>
+        <v>-1.189844288397999</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-13.89340528699482</v>
       </c>
       <c r="E32" t="n">
-        <v>-23.54798880490454</v>
+        <v>-23.64970290568191</v>
       </c>
       <c r="F32" t="n">
-        <v>0.949948595750868</v>
+        <v>0.9159086083623802</v>
       </c>
       <c r="G32" t="n">
-        <v>-1.329067836816914</v>
+        <v>-1.437891058037341</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-13.61331961427029</v>
       </c>
       <c r="E33" t="n">
-        <v>-23.21376849796096</v>
+        <v>-23.31680492132534</v>
       </c>
       <c r="F33" t="n">
-        <v>0.9161311775106895</v>
+        <v>0.8768411766826696</v>
       </c>
       <c r="G33" t="n">
-        <v>-1.611102224633377</v>
+        <v>-1.714740893928481</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-13.2612759808195</v>
       </c>
       <c r="E34" t="n">
-        <v>-22.75716134405292</v>
+        <v>-22.87314605492777</v>
       </c>
       <c r="F34" t="n">
-        <v>0.8491902330809442</v>
+        <v>0.8167736912448305</v>
       </c>
       <c r="G34" t="n">
-        <v>-1.858036148531172</v>
+        <v>-1.944235870441097</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-12.8486994198776</v>
       </c>
       <c r="E35" t="n">
-        <v>-22.40260869079614</v>
+        <v>-22.5055141911321</v>
       </c>
       <c r="F35" t="n">
-        <v>0.7713826772925662</v>
+        <v>0.7306394308491146</v>
       </c>
       <c r="G35" t="n">
-        <v>-2.149379163668102</v>
+        <v>-2.208517095604179</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-12.3864140012172</v>
       </c>
       <c r="E36" t="n">
-        <v>-21.82730671932501</v>
+        <v>-21.93728206319551</v>
       </c>
       <c r="F36" t="n">
-        <v>0.8198372901097943</v>
+        <v>0.7775622442338609</v>
       </c>
       <c r="G36" t="n">
-        <v>-2.457414864928233</v>
+        <v>-2.496259727459635</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-11.89896463169361</v>
       </c>
       <c r="E37" t="n">
-        <v>-21.37499384074906</v>
+        <v>-21.49380648903772</v>
       </c>
       <c r="F37" t="n">
-        <v>0.8392008060127072</v>
+        <v>0.793705053637709</v>
       </c>
       <c r="G37" t="n">
-        <v>-2.639947751147578</v>
+        <v>-2.679172290461389</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-11.40122658321674</v>
       </c>
       <c r="E38" t="n">
-        <v>-20.89542278765663</v>
+        <v>-21.00466496256799</v>
       </c>
       <c r="F38" t="n">
-        <v>0.9334522941702932</v>
+        <v>0.8908106638147913</v>
       </c>
       <c r="G38" t="n">
-        <v>-2.770085241394336</v>
+        <v>-2.812046072002067</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-10.90229757767622</v>
       </c>
       <c r="E39" t="n">
-        <v>-20.40464472333169</v>
+        <v>-20.51733017389043</v>
       </c>
       <c r="F39" t="n">
-        <v>0.9537584558778103</v>
+        <v>0.9092708108216251</v>
       </c>
       <c r="G39" t="n">
-        <v>-2.834473186769944</v>
+        <v>-2.863236976113216</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-10.41580515245522</v>
       </c>
       <c r="E40" t="n">
-        <v>-19.74439989102344</v>
+        <v>-19.86257101647286</v>
       </c>
       <c r="F40" t="n">
-        <v>0.9719960337363347</v>
+        <v>0.9309778489332069</v>
       </c>
       <c r="G40" t="n">
-        <v>-2.957868141053212</v>
+        <v>-2.97863253336019</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-9.957359962977961</v>
       </c>
       <c r="E41" t="n">
-        <v>-19.20638479804555</v>
+        <v>-19.32976666002598</v>
       </c>
       <c r="F41" t="n">
-        <v>1.045574775706835</v>
+        <v>1.001898853426837</v>
       </c>
       <c r="G41" t="n">
-        <v>-3.116298097740939</v>
+        <v>-3.131105492254932</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-9.543136110511778</v>
       </c>
       <c r="E42" t="n">
-        <v>-18.45046141656997</v>
+        <v>-18.56686508113576</v>
       </c>
       <c r="F42" t="n">
-        <v>1.020044785165469</v>
+        <v>0.980440569069248</v>
       </c>
       <c r="G42" t="n">
-        <v>-3.332661494503304</v>
+        <v>-3.344405290152333</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-9.17840349893744</v>
       </c>
       <c r="E43" t="n">
-        <v>-17.92709661047197</v>
+        <v>-18.05089742614333</v>
       </c>
       <c r="F43" t="n">
-        <v>1.127558776101724</v>
+        <v>1.081932100698308</v>
       </c>
       <c r="G43" t="n">
-        <v>-3.368102358295857</v>
+        <v>-3.3848081367219</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-8.866050798513395</v>
       </c>
       <c r="E44" t="n">
-        <v>-17.37151164708049</v>
+        <v>-17.48682865051041</v>
       </c>
       <c r="F44" t="n">
-        <v>1.073592303788129</v>
+        <v>1.043191976589641</v>
       </c>
       <c r="G44" t="n">
-        <v>-3.514225550312362</v>
+        <v>-3.537765510821785</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-8.605749003531352</v>
       </c>
       <c r="E45" t="n">
-        <v>-16.71799625843289</v>
+        <v>-16.846863795304</v>
       </c>
       <c r="F45" t="n">
-        <v>1.0947625574832</v>
+        <v>1.056716325425144</v>
       </c>
       <c r="G45" t="n">
-        <v>-3.695174267887857</v>
+        <v>-3.70922230883703</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-8.405318479316175</v>
       </c>
       <c r="E46" t="n">
-        <v>-16.2411353120287</v>
+        <v>-16.37315809388466</v>
       </c>
       <c r="F46" t="n">
-        <v>0.9138531168162292</v>
+        <v>0.8973437229328126</v>
       </c>
       <c r="G46" t="n">
-        <v>-3.86100137568116</v>
+        <v>-3.863999513031915</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-8.262425748285276</v>
       </c>
       <c r="E47" t="n">
-        <v>-15.6512223305862</v>
+        <v>-15.76812350265998</v>
       </c>
       <c r="F47" t="n">
-        <v>0.9931270105228805</v>
+        <v>0.97097483411468</v>
       </c>
       <c r="G47" t="n">
-        <v>-3.829933341037744</v>
+        <v>-3.850239502745261</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-8.165589651738552</v>
       </c>
       <c r="E48" t="n">
-        <v>-14.99960532585066</v>
+        <v>-15.13795168997918</v>
       </c>
       <c r="F48" t="n">
-        <v>0.9782934314032049</v>
+        <v>0.9467671661603285</v>
       </c>
       <c r="G48" t="n">
-        <v>-3.971304027122702</v>
+        <v>-4.002162584920651</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-8.107972768862817</v>
       </c>
       <c r="E49" t="n">
-        <v>-14.49669069679143</v>
+        <v>-14.62541421833128</v>
       </c>
       <c r="F49" t="n">
-        <v>0.8928530630581006</v>
+        <v>0.8746154851995762</v>
       </c>
       <c r="G49" t="n">
-        <v>-4.082051816860863</v>
+        <v>-4.101637901912085</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-8.081747829598767</v>
       </c>
       <c r="E50" t="n">
-        <v>-13.980971795553</v>
+        <v>-14.10173519696508</v>
       </c>
       <c r="F50" t="n">
-        <v>0.8839241125200434</v>
+        <v>0.8712900402777778</v>
       </c>
       <c r="G50" t="n">
-        <v>-4.153195390502803</v>
+        <v>-4.188531515872621</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-8.083946970343199</v>
       </c>
       <c r="E51" t="n">
-        <v>-13.50917757034856</v>
+        <v>-13.61569654626884</v>
       </c>
       <c r="F51" t="n">
-        <v>0.9980366240885278</v>
+        <v>0.9775078932327014</v>
       </c>
       <c r="G51" t="n">
-        <v>-4.243794126167547</v>
+        <v>-4.289054217091394</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-8.104360866915346</v>
       </c>
       <c r="E52" t="n">
-        <v>-12.86770710031535</v>
+        <v>-12.99478099169714</v>
       </c>
       <c r="F52" t="n">
-        <v>0.8840288509427773</v>
+        <v>0.8748380543478855</v>
       </c>
       <c r="G52" t="n">
-        <v>-4.346974564863189</v>
+        <v>-4.399409237744303</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-8.131638033852548</v>
       </c>
       <c r="E53" t="n">
-        <v>-12.47087940118263</v>
+        <v>-12.58327682107885</v>
       </c>
       <c r="F53" t="n">
-        <v>0.8955369851406545</v>
+        <v>0.8872102805333166</v>
       </c>
       <c r="G53" t="n">
-        <v>-4.536786771462534</v>
+        <v>-4.592520704659762</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-8.159643861229421</v>
       </c>
       <c r="E54" t="n">
-        <v>-11.83594199026744</v>
+        <v>-11.96672100335345</v>
       </c>
       <c r="F54" t="n">
-        <v>0.8735681009722381</v>
+        <v>0.8599390137140013</v>
       </c>
       <c r="G54" t="n">
-        <v>-4.719712426767131</v>
+        <v>-4.764357179457417</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-8.18812988687138</v>
       </c>
       <c r="E55" t="n">
-        <v>-11.4560819156176</v>
+        <v>-11.58047188491684</v>
       </c>
       <c r="F55" t="n">
-        <v>0.8368965607125634</v>
+        <v>0.8159750607714851</v>
       </c>
       <c r="G55" t="n">
-        <v>-4.935421208387409</v>
+        <v>-4.98412457495863</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-8.215954925938506</v>
       </c>
       <c r="E56" t="n">
-        <v>-11.08026736254586</v>
+        <v>-11.19504758155927</v>
       </c>
       <c r="F56" t="n">
-        <v>0.7600054661231062</v>
+        <v>0.7420035497157328</v>
       </c>
       <c r="G56" t="n">
-        <v>-5.135811995682869</v>
+        <v>-5.191493559668729</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-8.236912094382946</v>
       </c>
       <c r="E57" t="n">
-        <v>-10.52421107625207</v>
+        <v>-10.64015651021839</v>
       </c>
       <c r="F57" t="n">
-        <v>0.7419773651100494</v>
+        <v>0.721108234380338</v>
       </c>
       <c r="G57" t="n">
-        <v>-5.215884519862866</v>
+        <v>-5.270610345741281</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-8.250220096813552</v>
       </c>
       <c r="E58" t="n">
-        <v>-10.29438879216841</v>
+        <v>-10.3982762152175</v>
       </c>
       <c r="F58" t="n">
-        <v>0.6578724116548011</v>
+        <v>0.6405512949951976</v>
       </c>
       <c r="G58" t="n">
-        <v>-5.360083143361637</v>
+        <v>-5.415987276495807</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-8.255390324821832</v>
       </c>
       <c r="E59" t="n">
-        <v>-9.787625026073716</v>
+        <v>-9.89072691095231</v>
       </c>
       <c r="F59" t="n">
-        <v>0.6854186168337928</v>
+        <v>0.6688568537390093</v>
       </c>
       <c r="G59" t="n">
-        <v>-5.575412248199505</v>
+        <v>-5.633162396034359</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-8.258413111626298</v>
       </c>
       <c r="E60" t="n">
-        <v>-9.662776826175017</v>
+        <v>-9.747261456412675</v>
       </c>
       <c r="F60" t="n">
-        <v>0.6661860239592972</v>
+        <v>0.6570345042729306</v>
       </c>
       <c r="G60" t="n">
-        <v>-5.634746564678208</v>
+        <v>-5.690153190304392</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-8.258854423118628</v>
       </c>
       <c r="E61" t="n">
-        <v>-9.290549564081903</v>
+        <v>-9.365555367062152</v>
       </c>
       <c r="F61" t="n">
-        <v>0.6988251349437202</v>
+        <v>0.6942821058576413</v>
       </c>
       <c r="G61" t="n">
-        <v>-5.641685485184323</v>
+        <v>-5.704672554155866</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-8.251715255679892</v>
       </c>
       <c r="E62" t="n">
-        <v>-9.021319448444649</v>
+        <v>-9.087226100949897</v>
       </c>
       <c r="F62" t="n">
-        <v>0.659168549636132</v>
+        <v>0.6568381197303048</v>
       </c>
       <c r="G62" t="n">
-        <v>-5.722425716809247</v>
+        <v>-5.805941516636618</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-8.237741161253124</v>
       </c>
       <c r="E63" t="n">
-        <v>-8.689612863646676</v>
+        <v>-8.777278923474874</v>
       </c>
       <c r="F63" t="n">
-        <v>0.618595503129623</v>
+        <v>0.6187918876722488</v>
       </c>
       <c r="G63" t="n">
-        <v>-5.720278579143204</v>
+        <v>-5.792940859914784</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-8.218687206222942</v>
       </c>
       <c r="E64" t="n">
-        <v>-8.383187515636077</v>
+        <v>-8.471861682783089</v>
       </c>
       <c r="F64" t="n">
-        <v>0.5151008491657784</v>
+        <v>0.5162922487243754</v>
       </c>
       <c r="G64" t="n">
-        <v>-5.649383759255257</v>
+        <v>-5.723158885768384</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-8.197059413127864</v>
       </c>
       <c r="E65" t="n">
-        <v>-8.273827509999141</v>
+        <v>-8.354188064841654</v>
       </c>
       <c r="F65" t="n">
-        <v>0.3715306562034103</v>
+        <v>0.3825805598018271</v>
       </c>
       <c r="G65" t="n">
-        <v>-5.664151876860725</v>
+        <v>-5.748492491767124</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-8.169449979814077</v>
       </c>
       <c r="E66" t="n">
-        <v>-8.073764030274724</v>
+        <v>-8.15755476846177</v>
       </c>
       <c r="F66" t="n">
-        <v>0.329150871904743</v>
+        <v>0.3353435311488794</v>
       </c>
       <c r="G66" t="n">
-        <v>-5.645678637551049</v>
+        <v>-5.737704434225542</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-8.134536964461166</v>
       </c>
       <c r="E67" t="n">
-        <v>-7.94767206160606</v>
+        <v>-8.023581233482387</v>
       </c>
       <c r="F67" t="n">
-        <v>0.2341923993937038</v>
+        <v>0.2436974112567969</v>
       </c>
       <c r="G67" t="n">
-        <v>-5.598088116721375</v>
+        <v>-5.691410051377198</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-8.09196066424909</v>
       </c>
       <c r="E68" t="n">
-        <v>-7.799886147128656</v>
+        <v>-7.883833992949803</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1801473732630586</v>
+        <v>0.1873350475231662</v>
       </c>
       <c r="G68" t="n">
-        <v>-5.545574890023212</v>
+        <v>-5.639656178243855</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-8.049007154673818</v>
       </c>
       <c r="E69" t="n">
-        <v>-7.727027481814451</v>
+        <v>-7.822719123284626</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1760232978679149</v>
+        <v>0.1782358970481666</v>
       </c>
       <c r="G69" t="n">
-        <v>-5.457241122750085</v>
+        <v>-5.55307677955152</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-8.008295989491787</v>
       </c>
       <c r="E70" t="n">
-        <v>-7.734843586610961</v>
+        <v>-7.831739719942576</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0704993369636028</v>
+        <v>0.07201804409324303</v>
       </c>
       <c r="G70" t="n">
-        <v>-5.35980820500196</v>
+        <v>-5.448128879972244</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-7.966320514633117</v>
       </c>
       <c r="E71" t="n">
-        <v>-7.81060874315603</v>
+        <v>-7.895185019513581</v>
       </c>
       <c r="F71" t="n">
-        <v>0.07381168958255949</v>
+        <v>0.07259410541827897</v>
       </c>
       <c r="G71" t="n">
-        <v>-5.193876358785924</v>
+        <v>-5.27652806662574</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-7.926570109986017</v>
       </c>
       <c r="E72" t="n">
-        <v>-7.818293924924123</v>
+        <v>-7.915438812009731</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.002686635921645924</v>
+        <v>-0.002922297372796993</v>
       </c>
       <c r="G72" t="n">
-        <v>-5.112389865899021</v>
+        <v>-5.190969867555061</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-7.891936274236997</v>
       </c>
       <c r="E73" t="n">
-        <v>-8.033177891465373</v>
+        <v>-8.12334458113634</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.03740742305790346</v>
+        <v>-0.04128274469905437</v>
       </c>
       <c r="G73" t="n">
-        <v>-4.843958380735112</v>
+        <v>-4.923088259110504</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-7.868496417926878</v>
       </c>
       <c r="E74" t="n">
-        <v>-8.162032336033642</v>
+        <v>-8.252879825452379</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.09846992351171384</v>
+        <v>-0.0872498199763546</v>
       </c>
       <c r="G74" t="n">
-        <v>-4.713100813832059</v>
+        <v>-4.789271831765221</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-7.855603547767905</v>
       </c>
       <c r="E75" t="n">
-        <v>-8.506464639193771</v>
+        <v>-8.588736670251176</v>
       </c>
       <c r="F75" t="n">
-        <v>-0.1738554032743725</v>
+        <v>-0.1770499251677537</v>
       </c>
       <c r="G75" t="n">
-        <v>-4.471914410881782</v>
+        <v>-4.541591646605448</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-7.850416446363078</v>
       </c>
       <c r="E76" t="n">
-        <v>-8.763846220759262</v>
+        <v>-8.850373250240231</v>
       </c>
       <c r="F76" t="n">
-        <v>-0.1683304514751642</v>
+        <v>-0.1647562527993729</v>
       </c>
       <c r="G76" t="n">
-        <v>-4.191621299343268</v>
+        <v>-4.238832143390533</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-7.852639301884684</v>
       </c>
       <c r="E77" t="n">
-        <v>-9.281816998086471</v>
+        <v>-9.365895766936037</v>
       </c>
       <c r="F77" t="n">
-        <v>-0.238400456284082</v>
+        <v>-0.2390288868204849</v>
       </c>
       <c r="G77" t="n">
-        <v>-3.961026569391947</v>
+        <v>-4.025021745682304</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-7.865956513907241</v>
       </c>
       <c r="E78" t="n">
-        <v>-9.73690544486487</v>
+        <v>-9.818221737814831</v>
       </c>
       <c r="F78" t="n">
-        <v>-0.1827581692067463</v>
+        <v>-0.1916216582305948</v>
       </c>
       <c r="G78" t="n">
-        <v>-3.871946540856843</v>
+        <v>-3.931293949638387</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-7.890998454911866</v>
       </c>
       <c r="E79" t="n">
-        <v>-10.18261980280859</v>
+        <v>-10.25588432951089</v>
       </c>
       <c r="F79" t="n">
-        <v>-0.2521080973593692</v>
+        <v>-0.2577639721869949</v>
       </c>
       <c r="G79" t="n">
-        <v>-3.725849533446022</v>
+        <v>-3.78098122071253</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-7.922037890259133</v>
       </c>
       <c r="E80" t="n">
-        <v>-10.7749548602768</v>
+        <v>-10.8570043221859</v>
       </c>
       <c r="F80" t="n">
-        <v>-0.3024349094829643</v>
+        <v>-0.3143750896746184</v>
       </c>
       <c r="G80" t="n">
-        <v>-3.396892332244812</v>
+        <v>-3.452665542350565</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-7.958444174514512</v>
       </c>
       <c r="E81" t="n">
-        <v>-11.45376457801462</v>
+        <v>-11.54284460654972</v>
       </c>
       <c r="F81" t="n">
-        <v>-0.3184206112527118</v>
+        <v>-0.3318140370597976</v>
       </c>
       <c r="G81" t="n">
-        <v>-3.23690439151892</v>
+        <v>-3.293319124463918</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-8.000088353193579</v>
       </c>
       <c r="E82" t="n">
-        <v>-12.30002484909811</v>
+        <v>-12.38276820305782</v>
       </c>
       <c r="F82" t="n">
-        <v>-0.3822324953032846</v>
+        <v>-0.3988335353065933</v>
       </c>
       <c r="G82" t="n">
-        <v>-2.899489562681956</v>
+        <v>-2.952906158276198</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-8.053588032350552</v>
       </c>
       <c r="E83" t="n">
-        <v>-13.21614564814505</v>
+        <v>-13.30055172456566</v>
       </c>
       <c r="F83" t="n">
-        <v>-0.3577498889892569</v>
+        <v>-0.3797842346718819</v>
       </c>
       <c r="G83" t="n">
-        <v>-2.754466124104156</v>
+        <v>-2.805552289792571</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-8.120428418886634</v>
       </c>
       <c r="E84" t="n">
-        <v>-14.1580320991845</v>
+        <v>-14.25896066179137</v>
       </c>
       <c r="F84" t="n">
-        <v>-0.4143871910825639</v>
+        <v>-0.4322843690672034</v>
       </c>
       <c r="G84" t="n">
-        <v>-2.477590103607333</v>
+        <v>-2.531700591252187</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-8.198238631588913</v>
       </c>
       <c r="E85" t="n">
-        <v>-15.38379895274111</v>
+        <v>-15.47835156386405</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.4601055126058713</v>
+        <v>-0.4905451167128844</v>
       </c>
       <c r="G85" t="n">
-        <v>-2.278731115744356</v>
+        <v>-2.332972526417627</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-8.292782989379306</v>
       </c>
       <c r="E86" t="n">
-        <v>-16.44891015812689</v>
+        <v>-16.54025515505361</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.5556007695334212</v>
+        <v>-0.5862367581830602</v>
       </c>
       <c r="G86" t="n">
-        <v>-2.032333976263071</v>
+        <v>-2.098934520818932</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-8.411509292590107</v>
       </c>
       <c r="E87" t="n">
-        <v>-17.6155652643531</v>
+        <v>-17.7210237637432</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.4875600716649708</v>
+        <v>-0.5152895690837467</v>
       </c>
       <c r="G87" t="n">
-        <v>-1.976364381614693</v>
+        <v>-2.034088344843862</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-8.56152016695788</v>
       </c>
       <c r="E88" t="n">
-        <v>-18.99160556992704</v>
+        <v>-19.09508713158804</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.6419445067746047</v>
+        <v>-0.6704988192724092</v>
       </c>
       <c r="G88" t="n">
-        <v>-1.945126147034334</v>
+        <v>-2.005992262945519</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-8.74125740774722</v>
       </c>
       <c r="E89" t="n">
-        <v>-20.51916309628827</v>
+        <v>-20.63480740728923</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.6260897280332743</v>
+        <v>-0.6518161031172661</v>
       </c>
       <c r="G89" t="n">
-        <v>-1.932269505643759</v>
+        <v>-1.992363175687282</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-8.95119061624262</v>
       </c>
       <c r="E90" t="n">
-        <v>-22.15334433699251</v>
+        <v>-22.2728246927261</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.6597762232450356</v>
+        <v>-0.6946279334097104</v>
       </c>
       <c r="G90" t="n">
-        <v>-1.942795717128507</v>
+        <v>-2.006188647488144</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-9.192793290394494</v>
       </c>
       <c r="E91" t="n">
-        <v>-23.86505819512546</v>
+        <v>-23.98292819760952</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.8080334606247416</v>
+        <v>-0.8324636977274024</v>
       </c>
       <c r="G91" t="n">
-        <v>-1.985384978272642</v>
+        <v>-2.046159448063934</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-9.472941307057752</v>
       </c>
       <c r="E92" t="n">
-        <v>-25.60101899812129</v>
+        <v>-25.72004112325542</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.8542361973531929</v>
+        <v>-0.8820704331947025</v>
       </c>
       <c r="G92" t="n">
-        <v>-2.043645725918322</v>
+        <v>-2.115417730096665</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-9.792685974641817</v>
       </c>
       <c r="E93" t="n">
-        <v>-27.61907965044779</v>
+        <v>-27.74648084940062</v>
       </c>
       <c r="F93" t="n">
-        <v>-1.027813948428797</v>
+        <v>-1.056093322566925</v>
       </c>
       <c r="G93" t="n">
-        <v>-2.240436129932307</v>
+        <v>-2.304784798399391</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-10.14030291758433</v>
       </c>
       <c r="E94" t="n">
-        <v>-29.6751734425295</v>
+        <v>-29.794247936875</v>
       </c>
       <c r="F94" t="n">
-        <v>-1.053828354175307</v>
+        <v>-1.085001127241457</v>
       </c>
       <c r="G94" t="n">
-        <v>-2.309380196696837</v>
+        <v>-2.366109144910036</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-10.51661413844891</v>
       </c>
       <c r="E95" t="n">
-        <v>-31.87206185937113</v>
+        <v>-31.99947615062681</v>
       </c>
       <c r="F95" t="n">
-        <v>-1.283899392012959</v>
+        <v>-1.32782406804695</v>
       </c>
       <c r="G95" t="n">
-        <v>-2.521684979578267</v>
+        <v>-2.578610312334092</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-10.92317076260682</v>
       </c>
       <c r="E96" t="n">
-        <v>-34.13659820499596</v>
+        <v>-34.25764963707056</v>
       </c>
       <c r="F96" t="n">
-        <v>-1.415424666360939</v>
+        <v>-1.453654190658779</v>
       </c>
       <c r="G96" t="n">
-        <v>-2.740116960189624</v>
+        <v>-2.796374585500521</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-11.35596052029088</v>
       </c>
       <c r="E97" t="n">
-        <v>-36.35099103073699</v>
+        <v>-36.47137475536666</v>
       </c>
       <c r="F97" t="n">
-        <v>-1.596059168668233</v>
+        <v>-1.620816713341938</v>
       </c>
       <c r="G97" t="n">
-        <v>-2.818487485000197</v>
+        <v>-2.888400382175014</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-11.81577513213483</v>
       </c>
       <c r="E98" t="n">
-        <v>-38.68699825757481</v>
+        <v>-38.80602038270894</v>
       </c>
       <c r="F98" t="n">
-        <v>-1.866925822160704</v>
+        <v>-1.888750690997862</v>
       </c>
       <c r="G98" t="n">
-        <v>-3.08178678745015</v>
+        <v>-3.145559394592197</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-12.27983189133529</v>
       </c>
       <c r="E99" t="n">
-        <v>-40.99820866283039</v>
+        <v>-41.10852440657477</v>
       </c>
       <c r="F99" t="n">
-        <v>-1.884731354025452</v>
+        <v>-1.90125384021171</v>
       </c>
       <c r="G99" t="n">
-        <v>-3.34165590655557</v>
+        <v>-3.376429062903195</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-12.76380644224324</v>
       </c>
       <c r="E100" t="n">
-        <v>-43.32757809212745</v>
+        <v>-43.44225357271813</v>
       </c>
       <c r="F100" t="n">
-        <v>-2.22293172103292</v>
+        <v>-2.234924270435941</v>
       </c>
       <c r="G100" t="n">
-        <v>-3.386287566943015</v>
+        <v>-3.453045219132976</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-13.2336948372821</v>
       </c>
       <c r="E101" t="n">
-        <v>-45.6678010404803</v>
+        <v>-45.77743598447692</v>
       </c>
       <c r="F101" t="n">
-        <v>-2.262706137066083</v>
+        <v>-2.27617811669022</v>
       </c>
       <c r="G101" t="n">
-        <v>-3.653998975450629</v>
+        <v>-3.70884263205462</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-13.73854760623544</v>
       </c>
       <c r="E102" t="n">
-        <v>-48.21204134401577</v>
+        <v>-48.3073402164007</v>
       </c>
       <c r="F102" t="n">
-        <v>-2.536204343429741</v>
+        <v>-2.536099605007007</v>
       </c>
       <c r="G102" t="n">
-        <v>-3.680576350219333</v>
+        <v>-3.748944355658827</v>
       </c>
     </row>
   </sheetData>
